--- a/COURSE_2_Excel_Basics_for_Data_Analysis/Week5/FINAL_PROJECT_1/Montgomery_Fleet_Equipment_Inventory_FA_PART_1_START.xlsx
+++ b/COURSE_2_Excel_Basics_for_Data_Analysis/Week5/FINAL_PROJECT_1/Montgomery_Fleet_Equipment_Inventory_FA_PART_1_START.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_1e37\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F9BA5AB-EC59-4297-8486-1F1E277424E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96094718-CCE3-458A-8D76-215261F588F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
     <t>Van</t>
   </si>
   <si>
-    <t>Off Road VehicleEquipment</t>
+    <t>Off Road Vehicle Equipment</t>
   </si>
   <si>
     <t>Circuit Court</t>
@@ -975,7 +975,7 @@
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
